--- a/utils/Scale Drawings in Earth Tool.xlsx
+++ b/utils/Scale Drawings in Earth Tool.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15225" windowHeight="11370"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15225" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Design Drawing Scaling" sheetId="3" r:id="rId1"/>
@@ -196,16 +196,16 @@
     <t>GIMP can be used to scale images to 8192 pixels, etc.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32.959148°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32.954689°</t>
-  </si>
-  <si>
-    <t>-117.220522°</t>
-  </si>
-  <si>
-    <t>-117.229000°</t>
+    <t xml:space="preserve"> 80.230431°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80.164007°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32.786915°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32.130111°</t>
   </si>
 </sst>
 </file>
@@ -856,8 +856,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="B2" s="23">
         <f>B15/B14</f>
-        <v>0.51635840352139495</v>
+        <v>5.3630997286271541E-2</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>23</v>
@@ -916,7 +916,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
-        <v>363856.52</v>
+        <v>363842.16</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>5</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
-        <v>306749.84000000003</v>
+        <v>307599.08</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -1010,7 +1010,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>236.27</v>
+        <v>5593.78</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -1024,7 +1024,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>25</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B16" s="3">
         <f>Calculations!B18</f>
-        <v>32.9569914421213</v>
+        <v>80.167569385363734</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B17" s="3">
         <f>Calculations!E18</f>
-        <v>-117.22462231345494</v>
+        <v>32.165336053541608</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1129,8 +1129,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="C2">
         <f>'Design Drawing Scaling'!C5</f>
-        <v>363856.52</v>
+        <v>363842.16</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C3">
         <f>'Design Drawing Scaling'!C6</f>
-        <v>306749.84000000003</v>
+        <v>307599.08</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B5">
         <f>'Design Drawing Scaling'!B14</f>
-        <v>236.27</v>
+        <v>5593.78</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1190,7 +1190,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <f>'Design Drawing Scaling'!B15</f>
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B7" s="4">
         <f>B6/B5</f>
-        <v>0.51635840352139495</v>
+        <v>5.3630997286271541E-2</v>
       </c>
       <c r="C7" s="4"/>
       <c r="L7" t="s">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="M10">
         <f>(B11+B12)/2</f>
-        <v>32.9569185</v>
+        <v>80.19721899999999</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>17</v>
@@ -1259,8 +1259,8 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>LEFT('Design Drawing Scaling'!B10,10)</f>
-        <v xml:space="preserve"> 32.959148</v>
+        <f>LEFT('Design Drawing Scaling'!B10,LEN('Design Drawing Scaling'!B10)-1)</f>
+        <v xml:space="preserve"> 80.230431</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>17</v>
@@ -1269,8 +1269,8 @@
         <v>15</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f>LEFT('Design Drawing Scaling'!B12,11)</f>
-        <v>-117.220522</v>
+        <f>LEFT('Design Drawing Scaling'!B12,LEN('Design Drawing Scaling'!B12)-1)</f>
+        <v xml:space="preserve"> 32.786915</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>17</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="M11">
         <f>COS(M10*PI()/180)*M9</f>
-        <v>5345.7777406118466</v>
+        <v>1084.7094386396429</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
@@ -1291,8 +1291,8 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>LEFT('Design Drawing Scaling'!B11,10)</f>
-        <v xml:space="preserve"> 32.954689</v>
+        <f>LEFT('Design Drawing Scaling'!B11,LEN('Design Drawing Scaling'!B11)-1)</f>
+        <v xml:space="preserve"> 80.164007</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>17</v>
@@ -1301,8 +1301,8 @@
         <v>16</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f>LEFT('Design Drawing Scaling'!B13,11)</f>
-        <v>-117.229000</v>
+        <f>LEFT('Design Drawing Scaling'!B13,LEN('Design Drawing Scaling'!B13)-1)</f>
+        <v xml:space="preserve"> 32.130111</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>17</v>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="M12">
         <f>2*PI()*M11</f>
-        <v>33588.512155260039</v>
+        <v>6815.4304074196216</v>
       </c>
       <c r="N12" t="s">
         <v>33</v>
@@ -1327,7 +1327,7 @@
       <c r="F13" s="4"/>
       <c r="M13">
         <f>M12*3280.84</f>
-        <v>110198534.21946335</v>
+        <v>22360336.697878592</v>
       </c>
       <c r="N13" t="s">
         <v>8</v>
@@ -1339,11 +1339,11 @@
       </c>
       <c r="B14" s="5">
         <f>((B12-B11)^2)^0.5*C2</f>
-        <v>1622.4362226789465</v>
+        <v>24167.851635839204</v>
       </c>
       <c r="C14" s="5">
         <f>((E11-E12)^2)^0.5*C3</f>
-        <v>2600.6251435189743</v>
+        <v>202032.30614032035</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
@@ -1362,11 +1362,11 @@
       </c>
       <c r="B15" s="5">
         <f>B14*B7</f>
-        <v>837.7585777577832</v>
+        <v>1296.1459854967056</v>
       </c>
       <c r="C15" s="5">
         <f>C14*B7</f>
-        <v>1342.8546472650562</v>
+        <v>10835.194062350702</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="M15" s="22">
         <f>M13/360</f>
-        <v>306107.03949850932</v>
+        <v>62112.046382996086</v>
       </c>
       <c r="N15" t="s">
         <v>36</v>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B18" s="19">
         <f>B12+(B15/C2)</f>
-        <v>32.9569914421213</v>
+        <v>80.167569385363734</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>17</v>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="E18" s="19">
         <f>E12+(C15/C3)</f>
-        <v>-117.22462231345494</v>
+        <v>32.165336053541608</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>17</v>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B19" s="19" t="str">
         <f>B12</f>
-        <v xml:space="preserve"> 32.954689</v>
+        <v xml:space="preserve"> 80.164007</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="E19" s="19" t="str">
         <f>E12</f>
-        <v>-117.229000</v>
+        <v xml:space="preserve"> 32.130111</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>17</v>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="B21" s="1">
         <f>((B19-B18)^2)^0.5*C2</f>
-        <v>837.75857775692384</v>
+        <v>1296.1459854941274</v>
       </c>
       <c r="C21" s="1">
         <f>((E18-E19)^2)^0.5*C3</f>
-        <v>1342.8546472658741</v>
+        <v>10835.194062349667</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1475,7 @@
   <dimension ref="B1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="J35:K35"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/utils/Scale Drawings in Earth Tool.xlsx
+++ b/utils/Scale Drawings in Earth Tool.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15225" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15225" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Design Drawing Scaling" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>lat</t>
   </si>
@@ -161,18 +161,6 @@
   </si>
   <si>
     <t>West Lon</t>
-  </si>
-  <si>
-    <t>658+46</t>
-  </si>
-  <si>
-    <t>Isolating valve</t>
-  </si>
-  <si>
-    <t>653+97</t>
-  </si>
-  <si>
-    <t>Manway</t>
   </si>
   <si>
     <r>
@@ -196,26 +184,45 @@
     <t>GIMP can be used to scale images to 8192 pixels, etc.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 80.230431°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 80.164007°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32.786915°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32.130111°</t>
+    <t xml:space="preserve"> 32.812170°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32.806062°</t>
+  </si>
+  <si>
+    <t>-117.210689°</t>
+  </si>
+  <si>
+    <t>-117.222904°</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>measured</t>
+  </si>
+  <si>
+    <t>px/ft</t>
+  </si>
+  <si>
+    <t>scale to</t>
+  </si>
+  <si>
+    <t>scale by</t>
+  </si>
+  <si>
+    <t>unit length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +259,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -371,14 +385,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -408,10 +423,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,10 +871,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +901,7 @@
       </c>
       <c r="B2" s="23">
         <f>B15/B14</f>
-        <v>5.3630997286271541E-2</v>
+        <v>0.38334738940427815</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>23</v>
@@ -971,7 +988,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4"/>
       <c r="F10" s="12"/>
@@ -981,7 +998,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -990,7 +1007,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4"/>
       <c r="F12" s="12"/>
@@ -1000,7 +1017,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4"/>
       <c r="F13" s="12"/>
@@ -1010,7 +1027,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>5593.78</v>
+        <v>1304.3</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -1024,7 +1041,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>25</v>
@@ -1039,7 +1056,7 @@
       </c>
       <c r="B16" s="3">
         <f>Calculations!B18</f>
-        <v>80.167569385363734</v>
+        <v>32.808403485854477</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1052,7 +1069,7 @@
       </c>
       <c r="B17" s="3">
         <f>Calculations!E18</f>
-        <v>32.165336053541608</v>
+        <v>-117.21822141163842</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1071,17 +1088,17 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,29 +1107,71 @@
       </c>
       <c r="B23" s="4"/>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>425</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
+      <c r="B28">
+        <f>34200-34129.16</f>
+        <v>70.839999999996508</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <f>B27/B28</f>
+        <v>5.9994353472617297</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>1200.8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f>65846-65397</f>
-        <v>449</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
         <v>8</v>
+      </c>
+      <c r="D30">
+        <f>B29/B30</f>
+        <v>6.0039999999999996</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="25">
+        <f>D30/D28</f>
+        <v>1.0007608470587741</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1188,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1180,7 +1239,7 @@
       </c>
       <c r="B5">
         <f>'Design Drawing Scaling'!B14</f>
-        <v>5593.78</v>
+        <v>1304.3</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1190,7 +1249,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <f>'Design Drawing Scaling'!B15</f>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -1202,7 +1261,7 @@
       </c>
       <c r="B7" s="4">
         <f>B6/B5</f>
-        <v>5.3630997286271541E-2</v>
+        <v>0.38334738940427815</v>
       </c>
       <c r="C7" s="4"/>
       <c r="L7" t="s">
@@ -1248,7 +1307,7 @@
       </c>
       <c r="M10">
         <f>(B11+B12)/2</f>
-        <v>80.19721899999999</v>
+        <v>32.809116000000003</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>17</v>
@@ -1260,7 +1319,7 @@
       </c>
       <c r="B11" s="4" t="str">
         <f>LEFT('Design Drawing Scaling'!B10,LEN('Design Drawing Scaling'!B10)-1)</f>
-        <v xml:space="preserve"> 80.230431</v>
+        <v xml:space="preserve"> 32.812170</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>17</v>
@@ -1270,7 +1329,7 @@
       </c>
       <c r="E11" s="4" t="str">
         <f>LEFT('Design Drawing Scaling'!B12,LEN('Design Drawing Scaling'!B12)-1)</f>
-        <v xml:space="preserve"> 32.786915</v>
+        <v>-117.210689</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>17</v>
@@ -1280,7 +1339,7 @@
       </c>
       <c r="M11">
         <f>COS(M10*PI()/180)*M9</f>
-        <v>1084.7094386396429</v>
+        <v>5354.7006589654275</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
@@ -1292,7 +1351,7 @@
       </c>
       <c r="B12" s="4" t="str">
         <f>LEFT('Design Drawing Scaling'!B11,LEN('Design Drawing Scaling'!B11)-1)</f>
-        <v xml:space="preserve"> 80.164007</v>
+        <v xml:space="preserve"> 32.806062</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>17</v>
@@ -1302,7 +1361,7 @@
       </c>
       <c r="E12" s="4" t="str">
         <f>LEFT('Design Drawing Scaling'!B13,LEN('Design Drawing Scaling'!B13)-1)</f>
-        <v xml:space="preserve"> 32.130111</v>
+        <v>-117.222904</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>17</v>
@@ -1312,7 +1371,7 @@
       </c>
       <c r="M12">
         <f>2*PI()*M11</f>
-        <v>6815.4304074196216</v>
+        <v>33644.57650475642</v>
       </c>
       <c r="N12" t="s">
         <v>33</v>
@@ -1327,7 +1386,7 @@
       <c r="F13" s="4"/>
       <c r="M13">
         <f>M12*3280.84</f>
-        <v>22360336.697878592</v>
+        <v>110382472.37986507</v>
       </c>
       <c r="N13" t="s">
         <v>8</v>
@@ -1339,11 +1398,11 @@
       </c>
       <c r="B14" s="5">
         <f>((B12-B11)^2)^0.5*C2</f>
-        <v>24167.851635839204</v>
+        <v>2222.3479132816974</v>
       </c>
       <c r="C14" s="5">
         <f>((E11-E12)^2)^0.5*C3</f>
-        <v>202032.30614032035</v>
+        <v>3757.3227621992755</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
@@ -1362,11 +1421,11 @@
       </c>
       <c r="B15" s="5">
         <f>B14*B7</f>
-        <v>1296.1459854967056</v>
+        <v>851.93127090458381</v>
       </c>
       <c r="C15" s="5">
         <f>C14*B7</f>
-        <v>10835.194062350702</v>
+        <v>1440.3598720383636</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1376,7 +1435,7 @@
       </c>
       <c r="M15" s="22">
         <f>M13/360</f>
-        <v>62112.046382996086</v>
+        <v>306617.9788329585</v>
       </c>
       <c r="N15" t="s">
         <v>36</v>
@@ -1411,7 +1470,7 @@
       </c>
       <c r="B18" s="19">
         <f>B12+(B15/C2)</f>
-        <v>80.167569385363734</v>
+        <v>32.808403485854477</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>17</v>
@@ -1421,7 +1480,7 @@
       </c>
       <c r="E18" s="19">
         <f>E12+(C15/C3)</f>
-        <v>32.165336053541608</v>
+        <v>-117.21822141163842</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>17</v>
@@ -1433,7 +1492,7 @@
       </c>
       <c r="B19" s="19" t="str">
         <f>B12</f>
-        <v xml:space="preserve"> 80.164007</v>
+        <v xml:space="preserve"> 32.806062</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1443,7 +1502,7 @@
       </c>
       <c r="E19" s="19" t="str">
         <f>E12</f>
-        <v xml:space="preserve"> 32.130111</v>
+        <v>-117.222904</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>17</v>
@@ -1455,11 +1514,11 @@
       </c>
       <c r="B21" s="1">
         <f>((B19-B18)^2)^0.5*C2</f>
-        <v>1296.1459854941274</v>
+        <v>851.93127090333451</v>
       </c>
       <c r="C21" s="1">
         <f>((E18-E19)^2)^0.5*C3</f>
-        <v>10835.194062349667</v>
+        <v>1440.3598720392736</v>
       </c>
     </row>
   </sheetData>
